--- a/김지윤/oecd.xlsx
+++ b/김지윤/oecd.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rproject\team1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\team1_GeunbonBear\김지윤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A21F676-D50A-4408-869D-BBA5791B9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF00327C-8184-4B1A-8D64-24AAE5416DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14145" yWindow="495" windowWidth="14340" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="109">
   <si>
     <t>&lt;?xml version="1.0"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns=""&gt;&lt;DataTable Code="HSL" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;How's Life? Well-Being&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Comment va la vie? Bien-être&lt;/Name&gt;&lt;Dimension Code="LOCATION" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;ChildMember Code="BEL-VLG" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Flanders&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Flandres&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="CAN" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Canada&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Canada&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="COL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Colombia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Colombie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CRI" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Costa Rica&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Costa Rica&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GRC" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Greece&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Grèce&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Iceland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Islande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="IRL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ISR" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Israel&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Israël&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LUX" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Luxembourg&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Luxembourg&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NZL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;New Zealand&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Nouvelle-Zélande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="POL" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Poland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pologne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVN" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovenia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Slovénie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SWE" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Sweden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suède&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="TUR" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Türkiye&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Türkiye&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;ChildMember Code="GBR-ENG" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;England&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Angleterre&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="GBR-NIR" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Northern Ireland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Irlande du Nord&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="USA" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NMEC" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Non-OECD Economies&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Économies non-OCDE&lt;/Name&gt;&lt;ChildMember Code="BRA" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Brazil&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Brésil&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="RUS" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Russia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Russie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="ZAF" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;South Africa&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Afrique du Sud&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TYPE_VAR" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Type of indicator&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Type d'indicateur&lt;/Name&gt;&lt;Member Code="AVERAGE" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Average&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Moyenne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEP" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Deprivation&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Privation&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VARIABLE" Display="labels" ShowHierarchy="true"&gt;&lt;Name LocaleIsoCode="en"&gt;Indicator&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Indicateur&lt;/Name&gt;&lt;Member Code="1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Income and Wealth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu et patrimoine&lt;/Name&gt;&lt;ChildMember Code="1_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Household income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Revenu des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="1_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Household wealth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Partimoine net des ménages&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="1_4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Relative income poverty &lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Seuil de pauvreté relative&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="1_5" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Difficulty making ends meet&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Difficultés à joindre les deux bouts&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="1_6" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Financial insecurity&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Insécurité financière&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="1_2" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;S80/S20 income share ratio&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Rapport interquintile des revenus&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Work and Job Quality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Travail et qualité de l'emploi&lt;/Name&gt;&lt;ChildMember Code="2_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Employment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux d'emploi&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Gender wage gap&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Ecart salarial homme-femme&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Long-term unemployment rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de chômage de long-terme&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Youth not in employment, education or training&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Jeunes sans emploi et sans formation&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_5" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour market insecurity&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Insécurité de l'emploi lié au chômage &lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_6" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Job strain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Stress au travail&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_7" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Long hours in paid work&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Heures longues de travail (rémunéré)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="2_8" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Earnings&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Salaires&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Logement&lt;/Name&gt;&lt;ChildMember Code="3_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Overcrowding rate&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de suroccupation&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="3_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing affordability&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Accessibilité financière du logement&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="3_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Housing cost overburden&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de surcharge du coût au logement&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="3_4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Poor households without access to basic sanitary facilities&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Ménages pauvres sans accès aux équipements sanitaires de base&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="3_5" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Households with internet access at home &lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Ménages ayant accès à Internet&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Work-life Balance&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Equilibre travail-vie&lt;/Name&gt;&lt;ChildMember Code="4_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Time off&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Loisir et temps personnel de soin&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="4_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Long unpaid working hours&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Heures longues travaillées non rémunérées&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="4_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Gender gap in working hours&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Ecart de l'utilisation du temps Homme-Femme (temps total)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="4_4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Satisfaction with time use&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction à l'égard de l'utilisation du temps&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="5" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Santé&lt;/Name&gt;&lt;ChildMember Code="5_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Life expectancy at birth&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espérance de vie à la naissance&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="5_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Perceived health&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Etat de santé perçu&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="5_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Deaths from suicide, alcohol, drugs&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Taux de mortalité lié au suicide, usage d'alcool et usage de drogue&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="5_4" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Self-reported depression&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Etat de dépression déclaré&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="6" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Knowledge and skills&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Savoirs et compétences&lt;/Name&gt;&lt;ChildMember Code="6_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills (reading)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves (lecture)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="6_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills (maths)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves (mathématiques)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="6_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Student skills (science)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des élèves (science)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="6_4" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Adult skills (numeracy)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des adultes (mathématiques)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="6_5" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Adult skills (literacy)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Compétences des adultes (lecture et écriture)&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="7" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Social connections&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Liens sociaux&lt;/Name&gt;&lt;ChildMember Code="7_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Social support&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Soutien social&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="7_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Time spent in social interactions&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps consacré aux activités relationnelles&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="7_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Satisfaction with personal relationships&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satsifaction dans les relations personnelles&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="8" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Civic Engagement&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Engagement civique&lt;/Name&gt;&lt;ChildMember Code="8_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Having a say in government&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Avoir son mot à dire sur l'action des pouvoirs publics&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="8_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Voter turnout &lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Participation électorale&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="9" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Environmental quality&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Qualité environnementale&lt;/Name&gt;&lt;ChildMember Code="9_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Access to green space&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Accès aux espaces verts&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="9_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Air pollution&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pollution de l'air extérieure&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="10" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Safety&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sécurité&lt;/Name&gt;&lt;ChildMember Code="10_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Homicides&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Homicides&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="10_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Feeling safe at night&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Se sentir en sécurité durant la nuit&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="10_3" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Road deaths&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Accidents liés à la route&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;Member Code="11" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Subjective Well-being&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bien-être subjectif&lt;/Name&gt;&lt;ChildMember Code="11_1" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Life satisfaction&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Satisfaction à l'égard de la vie&lt;/Name&gt;&lt;/ChildMember&gt;&lt;ChildMember Code="11_2" HasMetadata="true" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Negative affect balance&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bilan émotionel négatif&lt;/Name&gt;&lt;/ChildMember&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="WB" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Current/Future Well-being&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actuel/Future Bien-Etre&lt;/Name&gt;&lt;Member Code="CWB" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Current Well-being&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Bien-être actuel&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="SEX" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Sex&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Sexe&lt;/Name&gt;&lt;Member Code="TOT" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Total population&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Totale&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="AGE" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Age&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Age&lt;/Name&gt;&lt;Member Code="TOT" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Total population&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Totale&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="EDUCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Education&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Education&lt;/Name&gt;&lt;Member Code="TOT" HasOnlyUnitMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;Total population&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Totale&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2004"&gt;&lt;Name LocaleIsoCode="en"&gt;2004&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2004&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2005"&gt;&lt;Name LocaleIsoCode="en"&gt;2005&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2005&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2006"&gt;&lt;Name LocaleIsoCode="en"&gt;2006&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2006&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2007"&gt;&lt;Name LocaleIsoCode="en"&gt;2007&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2007&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2008"&gt;&lt;Name LocaleIsoCode="en"&gt;2008&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2008&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2009"&gt;&lt;Name LocaleIsoCode="en"&gt;2009&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2009&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2010"&gt;&lt;Name LocaleIsoCode="en"&gt;2010&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2010&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2011"&gt;&lt;Name LocaleIsoCode="en"&gt;2011&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2011&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2012"&gt;&lt;Name LocaleIsoCode="en"&gt;2012&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2012&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2013"&gt;&lt;Name LocaleIsoCode="en"&gt;2013&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2013&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2014"&gt;&lt;Name LocaleIsoCode="en"&gt;2014&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2014&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2015"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2016"&gt;&lt;Name LocaleIsoCode="en"&gt;2016&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2016&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2017"&gt;&lt;Name LocaleIsoCode="en"&gt;2017&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2017&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2018" IsDisplayed="true"&gt;&lt;Name LocaleIsoCode="en"&gt;2018&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2018&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2019"&gt;&lt;Name LocaleIsoCode="en"&gt;2019&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2019&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2020"&gt;&lt;Name LocaleIsoCode="en"&gt;2020&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2020&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="2021"&gt;&lt;Name LocaleIsoCode="en"&gt;2021&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2021&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2004" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VARIABLE" /&gt;&lt;Dimension Code="TYPE_VAR" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" CommonCode="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="WB" /&gt;&lt;Dimension Code="SEX" /&gt;&lt;Dimension Code="AGE" /&gt;&lt;Dimension Code="EDUCATION" /&gt;&lt;Dimension Code="TIME" CommonCode="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;2&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;false&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;true&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;false&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;false&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=96535&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
   </si>
@@ -345,6 +346,22 @@
   </si>
   <si>
     <t>Deprivation</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_sat</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>United_EnglandKingdom</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>United_NorthernIreland</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium_Faldners</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1176,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,56 +1203,17 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1254,6 +1232,60 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1612,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="W13" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5:AV50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1635,62 +1667,62 @@
       </c>
     </row>
     <row r="2" spans="1:50" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="22"/>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="22"/>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="21" t="s">
+      <c r="Y2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
       <c r="AB2" s="22"/>
-      <c r="AC2" s="21" t="s">
+      <c r="AC2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
       <c r="AJ2" s="22"/>
-      <c r="AK2" s="21" t="s">
+      <c r="AK2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
       <c r="AO2" s="22"/>
       <c r="AP2" s="2" t="s">
         <v>9</v>
@@ -1698,22 +1730,22 @@
       <c r="AQ2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AR2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
       <c r="AU2" s="22"/>
-      <c r="AV2" s="21" t="s">
+      <c r="AV2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" s="26"/>
+      <c r="AW2" s="21"/>
       <c r="AX2" s="22"/>
     </row>
     <row r="3" spans="1:50" ht="73.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1771,29 +1803,29 @@
       <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="X3" s="22"/>
       <c r="Y3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="20" t="s">
         <v>34</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="20" t="s">
         <v>36</v>
       </c>
       <c r="AD3" s="22"/>
-      <c r="AE3" s="21" t="s">
+      <c r="AE3" s="20" t="s">
         <v>37</v>
       </c>
       <c r="AF3" s="22"/>
-      <c r="AG3" s="21" t="s">
+      <c r="AG3" s="20" t="s">
         <v>38</v>
       </c>
       <c r="AH3" s="22"/>
@@ -1803,14 +1835,14 @@
       <c r="AJ3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AK3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="AL3" s="22"/>
       <c r="AM3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" s="21" t="s">
+      <c r="AN3" s="20" t="s">
         <v>43</v>
       </c>
       <c r="AO3" s="22"/>
@@ -1823,14 +1855,14 @@
       <c r="AR3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AS3" s="20" t="s">
         <v>47</v>
       </c>
       <c r="AT3" s="22"/>
       <c r="AU3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AV3" s="20" t="s">
         <v>49</v>
       </c>
       <c r="AW3" s="22"/>
@@ -1839,29 +1871,29 @@
       </c>
     </row>
     <row r="4" spans="1:50" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="19"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1871,31 +1903,31 @@
       <c r="P4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="18" t="s">
+      <c r="R4" s="24"/>
+      <c r="S4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="19"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="24"/>
       <c r="X4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="Z4" s="19"/>
+      <c r="Z4" s="24"/>
       <c r="AA4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AB4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="19"/>
+      <c r="AC4" s="24"/>
       <c r="AD4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1908,21 +1940,21 @@
       <c r="AG4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="18" t="s">
+      <c r="AH4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="19"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="24"/>
       <c r="AK4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AL4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AM4" s="18" t="s">
+      <c r="AM4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AN4" s="19"/>
+      <c r="AN4" s="24"/>
       <c r="AO4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1932,17 +1964,17 @@
       <c r="AQ4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="18" t="s">
+      <c r="AR4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AS4" s="19"/>
+      <c r="AS4" s="24"/>
       <c r="AT4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AU4" s="18" t="s">
+      <c r="AU4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="AV4" s="19"/>
+      <c r="AV4" s="24"/>
       <c r="AW4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1951,10 +1983,10 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
@@ -2101,10 +2133,10 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
@@ -2251,10 +2283,10 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
@@ -2401,10 +2433,10 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
@@ -2703,10 +2735,10 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
@@ -2853,10 +2885,10 @@
       </c>
     </row>
     <row r="11" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="4" t="s">
         <v>55</v>
       </c>
@@ -3003,10 +3035,10 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
@@ -3153,10 +3185,10 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
@@ -3303,10 +3335,10 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
@@ -3453,10 +3485,10 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
@@ -3603,10 +3635,10 @@
       </c>
     </row>
     <row r="16" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="4" t="s">
         <v>55</v>
       </c>
@@ -3753,10 +3785,10 @@
       </c>
     </row>
     <row r="17" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="4" t="s">
         <v>55</v>
       </c>
@@ -3903,10 +3935,10 @@
       </c>
     </row>
     <row r="18" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
@@ -4053,10 +4085,10 @@
       </c>
     </row>
     <row r="19" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="4" t="s">
         <v>55</v>
       </c>
@@ -4203,10 +4235,10 @@
       </c>
     </row>
     <row r="20" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="4" t="s">
         <v>55</v>
       </c>
@@ -4353,10 +4385,10 @@
       </c>
     </row>
     <row r="21" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
@@ -4503,10 +4535,10 @@
       </c>
     </row>
     <row r="22" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
@@ -4653,10 +4685,10 @@
       </c>
     </row>
     <row r="23" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4" t="s">
         <v>55</v>
       </c>
@@ -4803,10 +4835,10 @@
       </c>
     </row>
     <row r="24" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="4" t="s">
         <v>55</v>
       </c>
@@ -4953,10 +4985,10 @@
       </c>
     </row>
     <row r="25" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="4" t="s">
         <v>55</v>
       </c>
@@ -5103,10 +5135,10 @@
       </c>
     </row>
     <row r="26" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
@@ -5253,10 +5285,10 @@
       </c>
     </row>
     <row r="27" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="4" t="s">
         <v>55</v>
       </c>
@@ -5403,10 +5435,10 @@
       </c>
     </row>
     <row r="28" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
@@ -5553,10 +5585,10 @@
       </c>
     </row>
     <row r="29" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="10"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="4" t="s">
         <v>55</v>
       </c>
@@ -5703,10 +5735,10 @@
       </c>
     </row>
     <row r="30" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="10"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="4" t="s">
         <v>55</v>
       </c>
@@ -5853,10 +5885,10 @@
       </c>
     </row>
     <row r="31" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="10"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="4" t="s">
         <v>55</v>
       </c>
@@ -6002,11 +6034,11 @@
         <v>7.8180524584065374</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="10"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="4" t="s">
         <v>55</v>
       </c>
@@ -6153,10 +6185,10 @@
       </c>
     </row>
     <row r="33" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="10"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
@@ -6303,10 +6335,10 @@
       </c>
     </row>
     <row r="34" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
@@ -6453,10 +6485,10 @@
       </c>
     </row>
     <row r="35" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="10"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="4" t="s">
         <v>55</v>
       </c>
@@ -6603,10 +6635,10 @@
       </c>
     </row>
     <row r="36" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
@@ -6753,10 +6785,10 @@
       </c>
     </row>
     <row r="37" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="4" t="s">
         <v>55</v>
       </c>
@@ -6903,10 +6935,10 @@
       </c>
     </row>
     <row r="38" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="10"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="4" t="s">
         <v>55</v>
       </c>
@@ -7053,10 +7085,10 @@
       </c>
     </row>
     <row r="39" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="4" t="s">
         <v>55</v>
       </c>
@@ -7203,10 +7235,10 @@
       </c>
     </row>
     <row r="40" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
@@ -7353,10 +7385,10 @@
       </c>
     </row>
     <row r="41" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="4" t="s">
         <v>55</v>
       </c>
@@ -7503,10 +7535,10 @@
       </c>
     </row>
     <row r="42" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
@@ -7653,10 +7685,10 @@
       </c>
     </row>
     <row r="43" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="10"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="4" t="s">
         <v>55</v>
       </c>
@@ -7803,7 +7835,7 @@
       </c>
     </row>
     <row r="44" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="35" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -7955,7 +7987,7 @@
       </c>
     </row>
     <row r="45" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="5" t="s">
         <v>97</v>
       </c>
@@ -8105,10 +8137,10 @@
       </c>
     </row>
     <row r="46" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="10"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="4" t="s">
         <v>55</v>
       </c>
@@ -8255,10 +8287,10 @@
       </c>
     </row>
     <row r="47" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="4" t="s">
         <v>55</v>
       </c>
@@ -8405,7 +8437,7 @@
       </c>
     </row>
     <row r="48" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="35" t="s">
         <v>99</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -8557,7 +8589,7 @@
       </c>
     </row>
     <row r="49" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="5" t="s">
         <v>101</v>
       </c>
@@ -8707,7 +8739,7 @@
       </c>
     </row>
     <row r="50" spans="1:50" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="5" t="s">
         <v>102</v>
       </c>
@@ -8863,27 +8895,43 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AC2:AJ2"/>
-    <mergeCell ref="AK2:AO2"/>
-    <mergeCell ref="AR2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AB4:AC4"/>
@@ -8900,43 +8948,27 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AC2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <hyperlinks>
@@ -9005,4 +9037,364 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId62"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2921660B-4A9B-4E14-9370-EEAD2075764A}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7">
+        <v>8.0024162945965003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6">
+        <v>8.2648527751924714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="6">
+        <v>7.4364578000839403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="7">
+        <v>7.7611020390807299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7.0057674813445097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="7">
+        <v>8.1226178530308601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7.25438838575442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6.4376863334309196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.5062717838787503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="6">
+        <v>7.9215075251094369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7">
+        <v>7.0740310608122199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="6">
+        <v>6.7377044759448301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6.3824132623716299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7.5563322385903504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="6">
+        <v>7.6955204702237996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="7">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="6">
+        <v>7.9803644311633501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="7">
+        <v>7.7830587378064298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="6">
+        <v>6.6892248888262102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="7">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="6">
+        <v>7.3107141992689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="6">
+        <v>7.7965667555008897</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="7">
+        <v>7.9633662674329297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="21" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="7">
+        <v>7.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="26" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1" tooltip="Click once to display linked information. Click and hold to select this cell." display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HSL&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{A43B5415-5683-49D8-89FE-511FF518F5DE}"/>
+    <hyperlink ref="A20" r:id="rId2" tooltip="Click once to display linked information. Click and hold to select this cell." display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=HSL&amp;Coords=[LOCATION].[ISR]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{0DDA4AA9-173C-4AA4-B37E-3CDE647EEFA8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>